--- a/RPA CA3 Group 2 Robot/Database_Main.xlsx
+++ b/RPA CA3 Group 2 Robot/Database_Main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaleb Nim\Documents\GitHub\RPA_grp2\RPA CA3 Group 2 Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73AB57B-B959-44F0-8063-24CCFA73E7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA223229-1386-40D8-960E-D854355D56DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="2250" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="178">
   <si>
     <t>HP</t>
   </si>
@@ -437,6 +437,132 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Penny Neo_x000D_</t>
+  </si>
+  <si>
+    <t>T0416829F</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Penny_Neo@gmail.com</t>
+  </si>
+  <si>
+    <t>Woodlands Avenue blk 796 #5-307_x000D_</t>
+  </si>
+  <si>
+    <t>+65 8222-1122_x000D_</t>
+  </si>
+  <si>
+    <t>Masters Of Science_x000D_</t>
+  </si>
+  <si>
+    <t>Ruo Xuan_x000D_</t>
+  </si>
+  <si>
+    <t>T0418324Z</t>
+  </si>
+  <si>
+    <t>24/7/2004</t>
+  </si>
+  <si>
+    <t>Ruo_xuan.2@gmail.com</t>
+  </si>
+  <si>
+    <t>Woodlands drive 20 blk 665 #5-307_x000D_</t>
+  </si>
+  <si>
+    <t>8399 2669_x000D_</t>
+  </si>
+  <si>
+    <t>Degree in Full-stack development_x000D_</t>
+  </si>
+  <si>
+    <t>Kaleb Nim_x000D_</t>
+  </si>
+  <si>
+    <t>T0418191z</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Woodlands Crescent blk 789D #13-209_x000D_</t>
+  </si>
+  <si>
+    <t>84953150_x000D_</t>
+  </si>
+  <si>
+    <t>PhD in Machine Learning_x000D_</t>
+  </si>
+  <si>
+    <t>Kai wen_x000D_</t>
+  </si>
+  <si>
+    <t>T0059829h</t>
+  </si>
+  <si>
+    <t>Kai_wen@gmail.com</t>
+  </si>
+  <si>
+    <t>Senkang Road 10 blk 12 #3-21_x000D_</t>
+  </si>
+  <si>
+    <t>9221 7949_x000D_</t>
+  </si>
+  <si>
+    <t>Masters in Statistics_x000D_</t>
+  </si>
+  <si>
+    <t>ABC Bank Singapore_x000D_</t>
+  </si>
+  <si>
+    <t>Advanced Analytics Manager_x000D_</t>
+  </si>
+  <si>
+    <t>15/7/2021</t>
+  </si>
+  <si>
+    <t>T ableau,Python,Spark,R,SAS,SQL,MATLAB_x000D_</t>
+  </si>
+  <si>
+    <t>Drive consumeranalytics capabilities of consumer_x000D_</t>
+  </si>
+  <si>
+    <t>Project SP Inc._x000D_</t>
+  </si>
+  <si>
+    <t>Front-End-Web-Dev_x000D_</t>
+  </si>
+  <si>
+    <t>React,React Native,HTML,Javascript,Node.js_x000D_</t>
+  </si>
+  <si>
+    <t>TGH Consultancy Singapore_x000D_</t>
+  </si>
+  <si>
+    <t>Market Research Analyst_x000D_</t>
+  </si>
+  <si>
+    <t>Python,Seaborn,Plotly,PlotlyGo,PlotlyDash,R_x000D_</t>
+  </si>
+  <si>
+    <t>Catalyst Inc. Singapore_x000D_</t>
+  </si>
+  <si>
+    <t>Data Analyst_x000D_</t>
+  </si>
+  <si>
+    <t>14/7/2020</t>
+  </si>
+  <si>
+    <t>T ableau,Seaborn,Plotly,GO,R,C,C#_x000D_</t>
+  </si>
+  <si>
+    <t>Make graph equal stonks_x000D_</t>
   </si>
 </sst>
 </file>
@@ -550,7 +676,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -593,6 +719,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1163,9 +1290,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1354,6 +1481,134 @@
         <v>92</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="3">
+        <v>38175</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="3">
+        <v>37993</v>
+      </c>
+      <c r="D10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="3">
+        <v>36867</v>
+      </c>
+      <c r="D11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
@@ -1368,9 +1623,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:G14"/>
     </sheetView>
   </sheetViews>
@@ -1595,6 +1850,98 @@
       </c>
       <c r="G11" s="11" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="3">
+        <v>43288</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="28">
+        <v>43160</v>
+      </c>
+      <c r="E13" s="28">
+        <v>43952</v>
+      </c>
+      <c r="F13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="3">
+        <v>41365</v>
+      </c>
+      <c r="E14" s="3">
+        <v>42219</v>
+      </c>
+      <c r="F14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="3">
+        <v>43263</v>
+      </c>
+      <c r="E15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
